--- a/biology/Botanique/Russule_charbonnière/Russule_charbonnière.xlsx
+++ b/biology/Botanique/Russule_charbonnière/Russule_charbonnière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Russule_charbonni%C3%A8re</t>
+          <t>Russule_charbonnière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Russula cyanoxantha
 Russula cyanoxantha, la russule charbonnière, est une espèce de champignons basidiomycètes de la famille des russulacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Russule_charbonni%C3%A8re</t>
+          <t>Russule_charbonnière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle possède un chapeau (5 à 15 cm de diamètre) de couleur très variable, du violet au vert olive. Les lames sont blanches, adhérentes, et ne cassent pas sous la pression du doigt mais se plient, et, au toucher, elles se montrent souples et onctueuses (les mycologues disent que cette Russule a une consistance lardacée) ce qui est un des principaux critères de reconnaissance, les lactaires et les autres russules ayant en commun une chair friable ou cassante comme de la craie. Le pied, de 5 à 10 cm de haut pour un diamètre de 2 à 3 cm, est blanc et cassant comme du polystyrène. La saveur est douce, rappelant celle de la noisette, et l'odeur faible. Elle pousse de l'été à la fin de l'automne en forêt, sous feuillus[1]. Dans certaines régions de France, elle porte le nom de charbonnette.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle possède un chapeau (5 à 15 cm de diamètre) de couleur très variable, du violet au vert olive. Les lames sont blanches, adhérentes, et ne cassent pas sous la pression du doigt mais se plient, et, au toucher, elles se montrent souples et onctueuses (les mycologues disent que cette Russule a une consistance lardacée) ce qui est un des principaux critères de reconnaissance, les lactaires et les autres russules ayant en commun une chair friable ou cassante comme de la craie. Le pied, de 5 à 10 cm de haut pour un diamètre de 2 à 3 cm, est blanc et cassant comme du polystyrène. La saveur est douce, rappelant celle de la noisette, et l'odeur faible. Elle pousse de l'été à la fin de l'automne en forêt, sous feuillus. Dans certaines régions de France, elle porte le nom de charbonnette.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Russule_charbonni%C3%A8re</t>
+          <t>Russule_charbonnière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un excellent comestible, à saveur de noisette[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un excellent comestible, à saveur de noisette.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Russule_charbonni%C3%A8re</t>
+          <t>Russule_charbonnière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Si on est vraiment distrait on peut confondre la russule charbonnière avec la mortelle amanite phalloïde mais plusieurs critères majeurs les différencient :
 Pas d'anneau ni de volve chez la russule charbonnière, c'est pourquoi il faut toujours déterrer le pied d'un champignon afin de pouvoir l'examiner dans son intégralité.
